--- a/data/trans_dic/P0901-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P0901-Habitat-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.2369933721978235</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.2031899529711115</v>
+        <v>0.2031899529711114</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1037113134864389</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.06377809858561387</v>
+        <v>0.06468935179477177</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1050702603728906</v>
+        <v>0.1033442243852218</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1068283210423747</v>
+        <v>0.1064269582640701</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.126408645889596</v>
+        <v>0.1248938952159511</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1030700758859535</v>
+        <v>0.1015754364329798</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1890453365890404</v>
+        <v>0.1888645709044553</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2041646124745233</v>
+        <v>0.2064640626436326</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1832078238469672</v>
+        <v>0.181010286767222</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.08911273062526899</v>
+        <v>0.08901503508213532</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1541184089658387</v>
+        <v>0.1555675473603733</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1640701157113478</v>
+        <v>0.1613199611657156</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.160868350694741</v>
+        <v>0.1600130918388093</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1017375022440966</v>
+        <v>0.1040666142768166</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1568081898461399</v>
+        <v>0.1575979280664855</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1590956405706955</v>
+        <v>0.1596433743221078</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1805150088556409</v>
+        <v>0.1810296445730694</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1547595191411831</v>
+        <v>0.1499228105885382</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2519314766499521</v>
+        <v>0.2545432934844957</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2720130192165497</v>
+        <v>0.2737466081323203</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2271368806287598</v>
+        <v>0.2271100027228938</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1221308878924441</v>
+        <v>0.1203091866262211</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.195420035438705</v>
+        <v>0.1968904404173184</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2056981479966998</v>
+        <v>0.2046637992735684</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1980572454801321</v>
+        <v>0.1964399954786794</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.08012494754357447</v>
+        <v>0.07953051696879769</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1053172265208166</v>
+        <v>0.1045805662756454</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08049265346183994</v>
+        <v>0.08007122195641604</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1005521761138952</v>
+        <v>0.09944276980451822</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1391267092926438</v>
+        <v>0.1376516285720646</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1966847412282844</v>
+        <v>0.195600874373817</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1547654090833711</v>
+        <v>0.154210542966017</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1863820950982954</v>
+        <v>0.1857200608423343</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1147477314015583</v>
+        <v>0.1144940051270878</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1587621763884005</v>
+        <v>0.1594054830129315</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.122571881393108</v>
+        <v>0.1253205997692207</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1480210384685823</v>
+        <v>0.1478480479465316</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1188788992438123</v>
+        <v>0.1160601503889287</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1488915838756635</v>
+        <v>0.1490708970660135</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1193217769220384</v>
+        <v>0.1188660935300555</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1389327181375898</v>
+        <v>0.1423339195187352</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1864446922466733</v>
+        <v>0.1866863670432519</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.252657689462823</v>
+        <v>0.2514056824167246</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2057281219669506</v>
+        <v>0.2051370420048</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2263125944205373</v>
+        <v>0.2255731220942943</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1454252944575739</v>
+        <v>0.1458798125535198</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1940106405817984</v>
+        <v>0.1930209436670504</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1552578400555139</v>
+        <v>0.156909397067641</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.178525019480907</v>
+        <v>0.1786309184947388</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06624508671196336</v>
+        <v>0.06496766282692626</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07680402820141748</v>
+        <v>0.07529937755883644</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06501880435671455</v>
+        <v>0.06455200823032772</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1199593914084993</v>
+        <v>0.1186328240033162</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1487744759888773</v>
+        <v>0.1490638383369163</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1565742357790823</v>
+        <v>0.1579556664309862</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.159354342441324</v>
+        <v>0.15669102505652</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1745659040096587</v>
+        <v>0.1750898846398018</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1149601060205498</v>
+        <v>0.1145801673973515</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1249848015218237</v>
+        <v>0.1243848036792051</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1167634910538028</v>
+        <v>0.1178744511527</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1538967871468466</v>
+        <v>0.1541847560074119</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1089504197933111</v>
+        <v>0.1078073135511839</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1249625501268483</v>
+        <v>0.1212774245646365</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1080981283639242</v>
+        <v>0.1061838253400585</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.170122391275189</v>
+        <v>0.1700546975948324</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2076969489555875</v>
+        <v>0.2083606126363424</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2146827337390689</v>
+        <v>0.2190495905141112</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.216386433659149</v>
+        <v>0.2172888872054787</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2227019638335859</v>
+        <v>0.2225878104026156</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.151168597257424</v>
+        <v>0.149998955687364</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1628871760324636</v>
+        <v>0.1616475027284712</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1533237761623664</v>
+        <v>0.1551672723585549</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1889867447318244</v>
+        <v>0.1895432256782147</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.1091883239481588</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1368597767059731</v>
+        <v>0.136859776705973</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1817932632800479</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.07406465712867902</v>
+        <v>0.07511394309564147</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1043373357030355</v>
+        <v>0.1038727166552156</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08788740508003451</v>
+        <v>0.09015477608974044</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1182700016664665</v>
+        <v>0.1154480605792103</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1570092990262725</v>
+        <v>0.1583308306552123</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1777107112249573</v>
+        <v>0.176817082448282</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1640708746755195</v>
+        <v>0.1647263457521442</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1992445369877486</v>
+        <v>0.1983004433352762</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1240159355361986</v>
+        <v>0.1242875422111044</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1484969556970692</v>
+        <v>0.1510237997520373</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1354269130408204</v>
+        <v>0.1345352453009454</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1679378604718063</v>
+        <v>0.1652089939538249</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1118062967559507</v>
+        <v>0.1108324132032089</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1501209184342037</v>
+        <v>0.1486834342635543</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1311064439433098</v>
+        <v>0.1297876650228981</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1616335736516587</v>
+        <v>0.160912392736785</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2080050818251832</v>
+        <v>0.207071866915958</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2318309768945464</v>
+        <v>0.2299296585381604</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2159963286487212</v>
+        <v>0.2154645758691754</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.243108686620975</v>
+        <v>0.241375888844401</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1564124276583739</v>
+        <v>0.1561354422773134</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1821162762118029</v>
+        <v>0.184929302861791</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1703020059786923</v>
+        <v>0.1687176644689723</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1968957653075244</v>
+        <v>0.1968434440827306</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.1047915443360537</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1362390907504479</v>
+        <v>0.1362390907504478</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1633919315485758</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.08045319006463482</v>
+        <v>0.07932654752445274</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1078553968080006</v>
+        <v>0.1088186411950871</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0939726032463061</v>
+        <v>0.09418679776645994</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1253320372372146</v>
+        <v>0.1243143634798648</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1507234917242171</v>
+        <v>0.1517604175701385</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1967315831844514</v>
+        <v>0.1946451627217343</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1815419577025603</v>
+        <v>0.1807205435782121</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1971689094370952</v>
+        <v>0.1961645899983037</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1192906726415923</v>
+        <v>0.1187029444064466</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1561358389762603</v>
+        <v>0.1563569777914434</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1421947176966632</v>
+        <v>0.1418136772379116</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1654950035265162</v>
+        <v>0.1636937698425313</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1014660526857801</v>
+        <v>0.1003699306674949</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1318808105064159</v>
+        <v>0.1313541299683496</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1149660775426758</v>
+        <v>0.1149141306645992</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.14867744643235</v>
+        <v>0.1476942797834256</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1763159697134691</v>
+        <v>0.1775098810229274</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2245248433481863</v>
+        <v>0.2232502212352256</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2095469474473365</v>
+        <v>0.2095764110453334</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.21825723325394</v>
+        <v>0.2187012870297135</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1355932162914225</v>
+        <v>0.1355903025343252</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1753468811074753</v>
+        <v>0.1748981137437628</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1592546838866282</v>
+        <v>0.1592307219938988</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1814216871521063</v>
+        <v>0.1803740377201193</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>44263</v>
+        <v>44895</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>73914</v>
+        <v>72699</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>72088</v>
+        <v>71817</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>87249</v>
+        <v>86204</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>70948</v>
+        <v>69920</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>131774</v>
+        <v>131648</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>137370</v>
+        <v>138917</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>134206</v>
+        <v>132596</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>123186</v>
+        <v>123051</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>215846</v>
+        <v>217875</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>221107</v>
+        <v>217401</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>228876</v>
+        <v>227659</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>70607</v>
+        <v>72223</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>110310</v>
+        <v>110865</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>107358</v>
+        <v>107727</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>124595</v>
+        <v>124950</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>106529</v>
+        <v>103200</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>175609</v>
+        <v>177429</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>183021</v>
+        <v>184187</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>166385</v>
+        <v>166366</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>168829</v>
+        <v>166311</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>273689</v>
+        <v>275749</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>277207</v>
+        <v>275813</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>281786</v>
+        <v>279485</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>77064</v>
+        <v>76492</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>107207</v>
+        <v>106457</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>82298</v>
+        <v>81867</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>105471</v>
+        <v>104307</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>134729</v>
+        <v>133301</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>203015</v>
+        <v>201896</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>161407</v>
+        <v>160828</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>199378</v>
+        <v>198670</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>221485</v>
+        <v>220996</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>325483</v>
+        <v>326802</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>253153</v>
+        <v>258830</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>313604</v>
+        <v>313238</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>114338</v>
+        <v>111627</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>151564</v>
+        <v>151746</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>121998</v>
+        <v>121532</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>145729</v>
+        <v>149296</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>180552</v>
+        <v>180786</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>260789</v>
+        <v>259497</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>214557</v>
+        <v>213940</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>242093</v>
+        <v>241302</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>280699</v>
+        <v>281576</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>397747</v>
+        <v>395718</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>320661</v>
+        <v>324072</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>378231</v>
+        <v>378456</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>44948</v>
+        <v>44081</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>58188</v>
+        <v>57049</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>49385</v>
+        <v>49031</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>96336</v>
+        <v>95271</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>101738</v>
+        <v>101936</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>121685</v>
+        <v>122759</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>125095</v>
+        <v>123004</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>141793</v>
+        <v>142218</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>156616</v>
+        <v>156098</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>191826</v>
+        <v>190905</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>180349</v>
+        <v>182065</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>248594</v>
+        <v>249060</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>73924</v>
+        <v>73148</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>94675</v>
+        <v>91883</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>82106</v>
+        <v>80652</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>136621</v>
+        <v>136566</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>142032</v>
+        <v>142486</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>166846</v>
+        <v>170240</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>169866</v>
+        <v>170574</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>180892</v>
+        <v>180799</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>205945</v>
+        <v>204351</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>249999</v>
+        <v>248096</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>236818</v>
+        <v>239666</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>305276</v>
+        <v>306175</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>69785</v>
+        <v>70774</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>98885</v>
+        <v>98444</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>82400</v>
+        <v>84526</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>116895</v>
+        <v>114106</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>163072</v>
+        <v>164444</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>186934</v>
+        <v>185994</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>171254</v>
+        <v>171938</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>222963</v>
+        <v>221906</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>245655</v>
+        <v>246193</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>296940</v>
+        <v>301993</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>268328</v>
+        <v>266561</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>353914</v>
+        <v>348164</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>105346</v>
+        <v>104429</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>142275</v>
+        <v>140913</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>122921</v>
+        <v>121685</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>159754</v>
+        <v>159041</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>216037</v>
+        <v>215067</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>243863</v>
+        <v>241863</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>225452</v>
+        <v>224897</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>272049</v>
+        <v>270110</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>309827</v>
+        <v>309278</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>364167</v>
+        <v>369792</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>337427</v>
+        <v>334288</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>414941</v>
+        <v>414830</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>263608</v>
+        <v>259917</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>369597</v>
+        <v>372897</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>318976</v>
+        <v>319703</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>442495</v>
+        <v>438902</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>509324</v>
+        <v>512828</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>700032</v>
+        <v>692608</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>643483</v>
+        <v>640572</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>736143</v>
+        <v>732393</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>793968</v>
+        <v>790056</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1090623</v>
+        <v>1092167</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>986674</v>
+        <v>984030</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1202179</v>
+        <v>1189095</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>332458</v>
+        <v>328866</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>451926</v>
+        <v>450122</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>390235</v>
+        <v>390059</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>524917</v>
+        <v>521446</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>595806</v>
+        <v>599841</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>798929</v>
+        <v>794393</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>742748</v>
+        <v>742852</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>814877</v>
+        <v>816535</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>902473</v>
+        <v>902454</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1224813</v>
+        <v>1221679</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1105051</v>
+        <v>1104885</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1317873</v>
+        <v>1310263</v>
       </c>
     </row>
     <row r="24">
